--- a/試験/Oracle/Oracle_database Sliver.xlsx
+++ b/試験/Oracle/Oracle_database Sliver.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work_space\Learning_record\LearningSite\試験\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\LearningSite\試験\Oracle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D445E3EF-E69E-4384-80ED-16539C381DE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FA9BCDB-2410-4D37-9FA7-C683F8C73225}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,21 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="250">
   <si>
     <t>Bigfile tablespace</t>
     <phoneticPr fontId="1"/>
@@ -1995,13 +1986,168 @@
   </si>
   <si>
     <t>客户端与数据库之间的一次连续交互过程，属于逻辑概念，后台由Shared Server处理。</t>
+  </si>
+  <si>
+    <t>每个Dispatcher自己管理一条自己的Response Queue</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>共用的公共响应队</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>列（common response queue）</t>
+    </r>
+  </si>
+  <si>
+    <t>SET VERIFY ON</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>控制在执行SQL时，显示变量替换前和替换后的SQL语句。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SET VERIFY ON也可以在SQL Developer的Script窗口使用。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans JP"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>不是只在WHERE子句，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Noto Sans JP"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>任何位置用到</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>变</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Noto Sans JP"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>量</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans JP"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>都会显示。</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>&amp;&amp;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans JP"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>变量名</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>第一次输入以后，后面遇到&amp;&amp;dept_id就直接替换成10，不再问。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>&amp;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>变</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans JP"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>量名</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>每次用到&amp;dept_id，都要重新输入一次！</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&amp;&amp;是替换变量（substitution variable），SET VERIFY ON可以显示替换过程</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">define </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans JP"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>常量</t>
+    </r>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2105,6 +2251,56 @@
       <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Noto Sans JP"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Noto Sans JP"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Noto Sans JP"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Noto Sans JP"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2296,7 +2492,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -2309,7 +2505,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2375,12 +2571,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2391,10 +2581,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2411,6 +2597,19 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -2871,6 +3070,138 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>22413</xdr:colOff>
+      <xdr:row>327</xdr:row>
+      <xdr:rowOff>33619</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>367418</xdr:colOff>
+      <xdr:row>337</xdr:row>
+      <xdr:rowOff>33618</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C171ACF-036B-3DD5-D6E3-FE1D39BFDE92}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="941295" y="85579325"/>
+          <a:ext cx="3292152" cy="2353235"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>340</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>625227</xdr:colOff>
+      <xdr:row>357</xdr:row>
+      <xdr:rowOff>133927</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{766DF145-B435-1849-C642-75A933B96C81}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="918882" y="88369588"/>
+          <a:ext cx="3572374" cy="4134427"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>360</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2149439</xdr:colOff>
+      <xdr:row>370</xdr:row>
+      <xdr:rowOff>218874</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28C31760-7396-025F-E802-00538B23D7FC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="918882" y="93546706"/>
+          <a:ext cx="5096586" cy="2572109"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3137,21 +3468,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:G291"/>
+  <dimension ref="A2:G360"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A292" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H290" sqref="H290:H291"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A346" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E370" sqref="E370"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="4.796875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="3.8984375" customWidth="1"/>
+    <col min="1" max="1" width="4.75" style="2" customWidth="1"/>
+    <col min="2" max="2" width="3.875" customWidth="1"/>
     <col min="3" max="3" width="3.5" customWidth="1"/>
-    <col min="4" max="4" width="38.59765625" customWidth="1"/>
+    <col min="4" max="4" width="38.625" customWidth="1"/>
     <col min="5" max="5" width="66.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20" customWidth="1"/>
-    <col min="7" max="7" width="10.19921875" customWidth="1"/>
+    <col min="7" max="7" width="10.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:3">
@@ -3444,7 +3775,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="78" spans="1:7" ht="36">
+    <row r="78" spans="1:7" ht="37.5">
       <c r="D78" s="26" t="s">
         <v>61</v>
       </c>
@@ -3466,7 +3797,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="81" spans="1:7" ht="36">
+    <row r="81" spans="1:7" ht="37.5">
       <c r="D81" s="26" t="s">
         <v>65</v>
       </c>
@@ -3474,7 +3805,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="82" spans="1:7" ht="36">
+    <row r="82" spans="1:7" ht="37.5">
       <c r="D82" s="27" t="s">
         <v>67</v>
       </c>
@@ -3549,25 +3880,25 @@
       <c r="E95" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="F95" s="37" t="s">
+      <c r="F95" s="35" t="s">
         <v>85</v>
       </c>
       <c r="G95" s="18"/>
     </row>
     <row r="96" spans="1:7">
-      <c r="D96" s="34" t="s">
+      <c r="D96" s="42" t="s">
         <v>86</v>
       </c>
-      <c r="E96" s="35" t="s">
+      <c r="E96" s="33" t="s">
         <v>87</v>
       </c>
-      <c r="F96" s="38" t="s">
+      <c r="F96" s="32" t="s">
         <v>90</v>
       </c>
       <c r="G96" s="6"/>
     </row>
     <row r="97" spans="2:7">
-      <c r="D97" s="32"/>
+      <c r="D97" s="43"/>
       <c r="E97" s="13" t="s">
         <v>88</v>
       </c>
@@ -3577,7 +3908,7 @@
       <c r="G97" s="2"/>
     </row>
     <row r="98" spans="2:7">
-      <c r="D98" s="33"/>
+      <c r="D98" s="44"/>
       <c r="E98" s="14" t="s">
         <v>89</v>
       </c>
@@ -3591,7 +3922,7 @@
       <c r="E99" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="F99" s="38" t="s">
+      <c r="F99" s="32" t="s">
         <v>94</v>
       </c>
       <c r="G99" s="6"/>
@@ -3633,10 +3964,10 @@
       <c r="G102" s="12"/>
     </row>
     <row r="103" spans="2:7">
-      <c r="D103" s="34" t="s">
+      <c r="D103" s="42" t="s">
         <v>104</v>
       </c>
-      <c r="E103" s="35" t="s">
+      <c r="E103" s="33" t="s">
         <v>105</v>
       </c>
       <c r="F103" s="8" t="s">
@@ -3645,7 +3976,7 @@
       <c r="G103" s="2"/>
     </row>
     <row r="104" spans="2:7">
-      <c r="D104" s="32"/>
+      <c r="D104" s="43"/>
       <c r="E104" s="13" t="s">
         <v>106</v>
       </c>
@@ -3655,7 +3986,7 @@
       <c r="G104" s="2"/>
     </row>
     <row r="105" spans="2:7">
-      <c r="D105" s="33"/>
+      <c r="D105" s="44"/>
       <c r="E105" s="14"/>
       <c r="F105" s="11" t="s">
         <v>109</v>
@@ -3673,7 +4004,7 @@
       </c>
     </row>
     <row r="109" spans="2:7">
-      <c r="C109" s="36" t="s">
+      <c r="C109" s="34" t="s">
         <v>112</v>
       </c>
     </row>
@@ -3693,7 +4024,7 @@
       </c>
     </row>
     <row r="119" spans="2:7">
-      <c r="G119" s="39" t="s">
+      <c r="G119" s="1" t="s">
         <v>116</v>
       </c>
     </row>
@@ -3703,7 +4034,7 @@
       </c>
     </row>
     <row r="128" spans="2:7">
-      <c r="D128" s="40" t="s">
+      <c r="D128" s="36" t="s">
         <v>80</v>
       </c>
       <c r="E128" s="28" t="s">
@@ -3713,18 +4044,18 @@
         <v>117</v>
       </c>
     </row>
-    <row r="129" spans="1:6" ht="36">
-      <c r="D129" s="41" t="s">
+    <row r="129" spans="1:6" ht="37.5">
+      <c r="D129" s="37" t="s">
         <v>120</v>
       </c>
-      <c r="E129" s="42" t="s">
+      <c r="E129" s="38" t="s">
         <v>121</v>
       </c>
-      <c r="F129" s="43" t="s">
+      <c r="F129" s="39" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="130" spans="1:6" ht="36">
+    <row r="130" spans="1:6" ht="37.5">
       <c r="D130" s="21" t="s">
         <v>123</v>
       </c>
@@ -3735,29 +4066,29 @@
         <v>125</v>
       </c>
     </row>
-    <row r="131" spans="1:6" ht="36">
-      <c r="D131" s="41" t="s">
+    <row r="131" spans="1:6" ht="37.5">
+      <c r="D131" s="37" t="s">
         <v>126</v>
       </c>
-      <c r="E131" s="42" t="s">
+      <c r="E131" s="38" t="s">
         <v>127</v>
       </c>
-      <c r="F131" s="43" t="s">
+      <c r="F131" s="39" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="132" spans="1:6" ht="36">
-      <c r="D132" s="41" t="s">
+    <row r="132" spans="1:6" ht="37.5">
+      <c r="D132" s="37" t="s">
         <v>86</v>
       </c>
-      <c r="E132" s="42" t="s">
+      <c r="E132" s="38" t="s">
         <v>129</v>
       </c>
-      <c r="F132" s="43" t="s">
+      <c r="F132" s="39" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="133" spans="1:6" ht="54">
+    <row r="133" spans="1:6" ht="56.25">
       <c r="D133" s="23" t="s">
         <v>131</v>
       </c>
@@ -3792,7 +4123,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="138" spans="1:6" ht="36">
+    <row r="138" spans="1:6" ht="37.5">
       <c r="D138" s="21" t="s">
         <v>139</v>
       </c>
@@ -3803,7 +4134,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="139" spans="1:6" ht="36">
+    <row r="139" spans="1:6" ht="37.5">
       <c r="D139" s="23" t="s">
         <v>142</v>
       </c>
@@ -3883,14 +4214,14 @@
       </c>
     </row>
     <row r="181" spans="3:5">
-      <c r="D181" s="40" t="s">
+      <c r="D181" s="36" t="s">
         <v>154</v>
       </c>
       <c r="E181" s="29" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="182" spans="3:5" ht="36">
+    <row r="182" spans="3:5" ht="37.5">
       <c r="D182" s="21" t="s">
         <v>156</v>
       </c>
@@ -3898,7 +4229,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="183" spans="3:5" ht="36">
+    <row r="183" spans="3:5" ht="37.5">
       <c r="D183" s="21" t="s">
         <v>158</v>
       </c>
@@ -3914,7 +4245,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="185" spans="3:5" ht="36">
+    <row r="185" spans="3:5" ht="37.5">
       <c r="D185" s="21" t="s">
         <v>162</v>
       </c>
@@ -3930,7 +4261,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="187" spans="3:5" ht="36">
+    <row r="187" spans="3:5" ht="37.5">
       <c r="D187" s="21" t="s">
         <v>166</v>
       </c>
@@ -3938,7 +4269,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="188" spans="3:5" ht="36">
+    <row r="188" spans="3:5" ht="37.5">
       <c r="D188" s="21" t="s">
         <v>168</v>
       </c>
@@ -3946,7 +4277,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="189" spans="3:5" ht="36">
+    <row r="189" spans="3:5" ht="37.5">
       <c r="D189" s="21" t="s">
         <v>170</v>
       </c>
@@ -3954,15 +4285,15 @@
         <v>171</v>
       </c>
     </row>
-    <row r="190" spans="3:5" ht="36">
-      <c r="D190" s="45" t="s">
+    <row r="190" spans="3:5" ht="37.5">
+      <c r="D190" s="41" t="s">
         <v>172</v>
       </c>
       <c r="E190" s="22" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="191" spans="3:5" ht="36">
+    <row r="191" spans="3:5" ht="37.5">
       <c r="D191" s="21" t="s">
         <v>173</v>
       </c>
@@ -3970,7 +4301,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="192" spans="3:5" ht="36">
+    <row r="192" spans="3:5" ht="37.5">
       <c r="D192" s="21" t="s">
         <v>175</v>
       </c>
@@ -3979,7 +4310,7 @@
       </c>
     </row>
     <row r="193" spans="4:6">
-      <c r="D193" s="44"/>
+      <c r="D193" s="40"/>
       <c r="E193" s="12"/>
     </row>
     <row r="195" spans="4:6" ht="36">
@@ -3993,18 +4324,18 @@
         <v>178</v>
       </c>
     </row>
-    <row r="196" spans="4:6" ht="36">
-      <c r="D196" s="41" t="s">
+    <row r="196" spans="4:6" ht="37.5">
+      <c r="D196" s="37" t="s">
         <v>83</v>
       </c>
-      <c r="E196" s="42" t="s">
+      <c r="E196" s="38" t="s">
         <v>179</v>
       </c>
-      <c r="F196" s="43" t="s">
+      <c r="F196" s="39" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="197" spans="4:6" ht="36">
+    <row r="197" spans="4:6" ht="37.5">
       <c r="D197" s="21" t="s">
         <v>181</v>
       </c>
@@ -4015,18 +4346,18 @@
         <v>183</v>
       </c>
     </row>
-    <row r="198" spans="4:6" ht="36">
-      <c r="D198" s="41" t="s">
+    <row r="198" spans="4:6" ht="37.5">
+      <c r="D198" s="37" t="s">
         <v>184</v>
       </c>
-      <c r="E198" s="42" t="s">
+      <c r="E198" s="38" t="s">
         <v>185</v>
       </c>
-      <c r="F198" s="43" t="s">
+      <c r="F198" s="39" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="199" spans="4:6" ht="36">
+    <row r="199" spans="4:6" ht="37.5">
       <c r="D199" s="21" t="s">
         <v>187</v>
       </c>
@@ -4037,18 +4368,18 @@
         <v>189</v>
       </c>
     </row>
-    <row r="200" spans="4:6" ht="36">
-      <c r="D200" s="41" t="s">
+    <row r="200" spans="4:6" ht="37.5">
+      <c r="D200" s="37" t="s">
         <v>190</v>
       </c>
-      <c r="E200" s="42" t="s">
+      <c r="E200" s="38" t="s">
         <v>191</v>
       </c>
-      <c r="F200" s="43" t="s">
+      <c r="F200" s="39" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="201" spans="4:6" ht="54">
+    <row r="201" spans="4:6" ht="56.25">
       <c r="D201" s="21" t="s">
         <v>193</v>
       </c>
@@ -4059,18 +4390,18 @@
         <v>195</v>
       </c>
     </row>
-    <row r="202" spans="4:6" ht="36">
-      <c r="D202" s="41" t="s">
+    <row r="202" spans="4:6" ht="37.5">
+      <c r="D202" s="37" t="s">
         <v>196</v>
       </c>
-      <c r="E202" s="42" t="s">
+      <c r="E202" s="38" t="s">
         <v>197</v>
       </c>
-      <c r="F202" s="43" t="s">
+      <c r="F202" s="39" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="203" spans="4:6" ht="36">
+    <row r="203" spans="4:6" ht="37.5">
       <c r="D203" s="23" t="s">
         <v>199</v>
       </c>
@@ -4115,27 +4446,27 @@
       </c>
     </row>
     <row r="248" spans="1:4">
-      <c r="C248" s="36" t="s">
+      <c r="C248" s="34" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="249" spans="1:4">
-      <c r="C249" s="36" t="s">
+      <c r="C249" s="34" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="250" spans="1:4">
-      <c r="C250" s="36" t="s">
+      <c r="C250" s="34" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="251" spans="1:4">
-      <c r="C251" s="36" t="s">
+      <c r="C251" s="34" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="252" spans="1:4">
-      <c r="C252" s="36" t="s">
+      <c r="C252" s="34" t="s">
         <v>213</v>
       </c>
     </row>
@@ -4206,52 +4537,115 @@
         <v>225</v>
       </c>
     </row>
-    <row r="286" spans="1:5" ht="36">
-      <c r="D286" s="42" t="s">
+    <row r="286" spans="1:5" ht="37.5">
+      <c r="D286" s="38" t="s">
         <v>226</v>
       </c>
-      <c r="E286" s="43" t="s">
+      <c r="E286" s="39" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="287" spans="1:5" ht="36">
-      <c r="D287" s="42" t="s">
+    <row r="287" spans="1:5" ht="37.5">
+      <c r="D287" s="38" t="s">
         <v>228</v>
       </c>
-      <c r="E287" s="43" t="s">
+      <c r="E287" s="39" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="288" spans="1:5">
-      <c r="D288" s="42" t="s">
+    <row r="288" spans="1:5" ht="37.5">
+      <c r="D288" s="38" t="s">
         <v>230</v>
       </c>
-      <c r="E288" s="43" t="s">
+      <c r="E288" s="39" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="289" spans="4:5" ht="36">
-      <c r="D289" s="42" t="s">
+    <row r="289" spans="4:6" ht="37.5">
+      <c r="D289" s="38" t="s">
         <v>232</v>
       </c>
-      <c r="E289" s="43" t="s">
+      <c r="E289" s="39" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="290" spans="4:5" ht="36">
-      <c r="D290" s="42" t="s">
+    <row r="290" spans="4:6" ht="37.5">
+      <c r="D290" s="38" t="s">
         <v>234</v>
       </c>
-      <c r="E290" s="43" t="s">
+      <c r="E290" s="39" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="291" spans="4:5" ht="36">
+    <row r="291" spans="4:6" ht="37.5">
       <c r="D291" s="27" t="s">
         <v>236</v>
       </c>
       <c r="E291" s="24" t="s">
         <v>237</v>
+      </c>
+    </row>
+    <row r="301" spans="4:6">
+      <c r="F301" s="46" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="317" spans="6:6">
+      <c r="F317" s="47" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4">
+      <c r="A321" s="2">
+        <v>11</v>
+      </c>
+      <c r="B321" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4">
+      <c r="C322" s="45" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4">
+      <c r="C323" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4">
+      <c r="C324" s="48" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4">
+      <c r="C325" s="45" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4">
+      <c r="C326" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4">
+      <c r="D327" s="45" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="339" spans="3:4">
+      <c r="C339" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="340" spans="3:4">
+      <c r="D340" s="45" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="360" spans="3:3">
+      <c r="C360" t="s">
+        <v>249</v>
       </c>
     </row>
   </sheetData>

--- a/試験/Oracle/Oracle_database Sliver.xlsx
+++ b/試験/Oracle/Oracle_database Sliver.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\LearningSite\試験\Oracle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FA9BCDB-2410-4D37-9FA7-C683F8C73225}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA92A02D-C50D-4503-954B-1DEC9CB7ADC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="299">
   <si>
     <t>Bigfile tablespace</t>
     <phoneticPr fontId="1"/>
@@ -2140,6 +2140,285 @@
       </rPr>
       <t>常量</t>
     </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Self JOIN</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Self Join可以是内连接（INNER JOIN）也可以是外连接（OUTER JOIN）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>可以用ON，也可以用USING，甚至可以写到WHERE条件里，不必须ON子句。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>典型用途</t>
+  </si>
+  <si>
+    <t>是否保留NULL</t>
+  </si>
+  <si>
+    <t>两边表都有匹配时才显示</t>
+  </si>
+  <si>
+    <t>精确筛选有对应关系的数据</t>
+  </si>
+  <si>
+    <t>❌ NULL行被排除</t>
+  </si>
+  <si>
+    <t>左表全保留，右表无匹配填NULL</t>
+  </si>
+  <si>
+    <t>保留左边表所有记录</t>
+  </si>
+  <si>
+    <t>✅ 左表全部保留</t>
+  </si>
+  <si>
+    <t>RIGHT OUTER JOIN</t>
+  </si>
+  <si>
+    <t>右表全保留，左表无匹配填NULL</t>
+  </si>
+  <si>
+    <t>保留右边表所有记录</t>
+  </si>
+  <si>
+    <t>✅ 右表全部保留</t>
+  </si>
+  <si>
+    <t>FULL OUTER JOIN</t>
+  </si>
+  <si>
+    <t>左右两边都保留，无匹配处补NULL</t>
+  </si>
+  <si>
+    <t>保留两表所有记录</t>
+  </si>
+  <si>
+    <t>✅ 左右都保留</t>
+  </si>
+  <si>
+    <r>
+      <t>LEFT OUTER JOIN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(=OUTER JOIN)</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RIGHT JOIN很少用</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>INNER JOIN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(=JOIN)</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OK</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LIKE操作符</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>含义</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <r>
+      <t>匹配</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0个或多个</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>任意字符</t>
+    </r>
+  </si>
+  <si>
+    <t>_</t>
+  </si>
+  <si>
+    <r>
+      <t>匹配</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>正好1个</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>任意字符</t>
+    </r>
+  </si>
+  <si>
+    <t>示例</t>
+  </si>
+  <si>
+    <t>匹配的内容</t>
+  </si>
+  <si>
+    <t>说明</t>
+  </si>
+  <si>
+    <t>LIKE 'D%'</t>
+  </si>
+  <si>
+    <t>以D开头，后面任意长度内容</t>
+  </si>
+  <si>
+    <t>D, DE, DOG, DELHI等</t>
+  </si>
+  <si>
+    <t>LIKE 'D_'</t>
+  </si>
+  <si>
+    <r>
+      <t>以D开头，后跟</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>恰好1个</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>字符</t>
+    </r>
+  </si>
+  <si>
+    <t>DA, DO, D1</t>
+  </si>
+  <si>
+    <t>LIKE 'D__'</t>
+  </si>
+  <si>
+    <r>
+      <t>以D开头，后跟</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>恰好2个</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>字符</t>
+    </r>
+  </si>
+  <si>
+    <t>DOG, DAY, D99</t>
+  </si>
+  <si>
+    <t>LIKE '%D%'</t>
+  </si>
+  <si>
+    <t>包含D字符</t>
+  </si>
+  <si>
+    <t>ADEL, LONDON, MID</t>
+  </si>
+  <si>
+    <t>LIKE '_D%'</t>
+  </si>
+  <si>
+    <t>第二个字母是D</t>
+  </si>
+  <si>
+    <t>ADAM, IDEA</t>
+  </si>
+  <si>
+    <t>符号</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ALTER DATABASE</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2147,7 +2426,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2302,13 +2581,25 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Noto Sans JP"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="16">
@@ -2492,7 +2783,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -2597,6 +2888,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2606,10 +2901,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -3202,6 +3518,55 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>381</xdr:row>
+      <xdr:rowOff>44823</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>4721548</xdr:colOff>
+      <xdr:row>405</xdr:row>
+      <xdr:rowOff>131908</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="図 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CFFC6D48-ABA9-404A-9740-D00B4520449D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="918882" y="99743558"/>
+          <a:ext cx="7668695" cy="5734850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3468,10 +3833,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:G360"/>
+  <dimension ref="A2:H420"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A346" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E370" sqref="E370"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A401" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D425" sqref="D425"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -3886,7 +4251,7 @@
       <c r="G95" s="18"/>
     </row>
     <row r="96" spans="1:7">
-      <c r="D96" s="42" t="s">
+      <c r="D96" s="46" t="s">
         <v>86</v>
       </c>
       <c r="E96" s="33" t="s">
@@ -3898,7 +4263,7 @@
       <c r="G96" s="6"/>
     </row>
     <row r="97" spans="2:7">
-      <c r="D97" s="43"/>
+      <c r="D97" s="47"/>
       <c r="E97" s="13" t="s">
         <v>88</v>
       </c>
@@ -3908,7 +4273,7 @@
       <c r="G97" s="2"/>
     </row>
     <row r="98" spans="2:7">
-      <c r="D98" s="44"/>
+      <c r="D98" s="48"/>
       <c r="E98" s="14" t="s">
         <v>89</v>
       </c>
@@ -3964,7 +4329,7 @@
       <c r="G102" s="12"/>
     </row>
     <row r="103" spans="2:7">
-      <c r="D103" s="42" t="s">
+      <c r="D103" s="46" t="s">
         <v>104</v>
       </c>
       <c r="E103" s="33" t="s">
@@ -3976,7 +4341,7 @@
       <c r="G103" s="2"/>
     </row>
     <row r="104" spans="2:7">
-      <c r="D104" s="43"/>
+      <c r="D104" s="47"/>
       <c r="E104" s="13" t="s">
         <v>106</v>
       </c>
@@ -3986,7 +4351,7 @@
       <c r="G104" s="2"/>
     </row>
     <row r="105" spans="2:7">
-      <c r="D105" s="44"/>
+      <c r="D105" s="48"/>
       <c r="E105" s="14"/>
       <c r="F105" s="11" t="s">
         <v>109</v>
@@ -4586,12 +4951,12 @@
       </c>
     </row>
     <row r="301" spans="4:6">
-      <c r="F301" s="46" t="s">
+      <c r="F301" s="43" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="317" spans="6:6">
-      <c r="F317" s="47" t="s">
+      <c r="F317" s="44" t="s">
         <v>238</v>
       </c>
     </row>
@@ -4604,7 +4969,7 @@
       </c>
     </row>
     <row r="322" spans="1:4">
-      <c r="C322" s="45" t="s">
+      <c r="C322" s="42" t="s">
         <v>241</v>
       </c>
     </row>
@@ -4614,12 +4979,12 @@
       </c>
     </row>
     <row r="324" spans="1:4">
-      <c r="C324" s="48" t="s">
+      <c r="C324" s="45" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="325" spans="1:4">
-      <c r="C325" s="45" t="s">
+      <c r="C325" s="42" t="s">
         <v>248</v>
       </c>
     </row>
@@ -4629,7 +4994,7 @@
       </c>
     </row>
     <row r="327" spans="1:4">
-      <c r="D327" s="45" t="s">
+      <c r="D327" s="42" t="s">
         <v>247</v>
       </c>
     </row>
@@ -4639,13 +5004,223 @@
       </c>
     </row>
     <row r="340" spans="3:4">
-      <c r="D340" s="45" t="s">
+      <c r="D340" s="42" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="360" spans="3:3">
       <c r="C360" t="s">
         <v>249</v>
+      </c>
+    </row>
+    <row r="373" spans="1:8">
+      <c r="A373" s="2">
+        <v>12</v>
+      </c>
+      <c r="B373" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="374" spans="1:8">
+      <c r="C374" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="375" spans="1:8">
+      <c r="C375" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="376" spans="1:8" ht="36">
+      <c r="D376" s="28" t="s">
+        <v>136</v>
+      </c>
+      <c r="E376" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="F376" s="28" t="s">
+        <v>253</v>
+      </c>
+      <c r="G376" s="28" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="377" spans="1:8" ht="37.5">
+      <c r="D377" s="38" t="s">
+        <v>271</v>
+      </c>
+      <c r="E377" s="38" t="s">
+        <v>255</v>
+      </c>
+      <c r="F377" s="38" t="s">
+        <v>256</v>
+      </c>
+      <c r="G377" s="50" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="378" spans="1:8" ht="37.5">
+      <c r="D378" s="38" t="s">
+        <v>269</v>
+      </c>
+      <c r="E378" s="38" t="s">
+        <v>258</v>
+      </c>
+      <c r="F378" s="38" t="s">
+        <v>259</v>
+      </c>
+      <c r="G378" s="38" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="379" spans="1:8" ht="37.5">
+      <c r="D379" s="38" t="s">
+        <v>261</v>
+      </c>
+      <c r="E379" s="38" t="s">
+        <v>262</v>
+      </c>
+      <c r="F379" s="38" t="s">
+        <v>263</v>
+      </c>
+      <c r="G379" s="38" t="s">
+        <v>264</v>
+      </c>
+      <c r="H379" s="49" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="380" spans="1:8" ht="37.5">
+      <c r="D380" s="38" t="s">
+        <v>265</v>
+      </c>
+      <c r="E380" s="38" t="s">
+        <v>266</v>
+      </c>
+      <c r="F380" s="38" t="s">
+        <v>267</v>
+      </c>
+      <c r="G380" s="38" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="408" spans="1:6">
+      <c r="A408" s="2">
+        <v>13</v>
+      </c>
+      <c r="B408" s="42" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="409" spans="1:6">
+      <c r="A409" s="51">
+        <v>14</v>
+      </c>
+      <c r="B409" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="410" spans="1:6">
+      <c r="D410" s="55" t="s">
+        <v>297</v>
+      </c>
+      <c r="E410" s="55" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="411" spans="1:6">
+      <c r="D411" s="52" t="s">
+        <v>275</v>
+      </c>
+      <c r="E411" s="38" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="412" spans="1:6">
+      <c r="D412" s="53" t="s">
+        <v>277</v>
+      </c>
+      <c r="E412" s="54" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="413" spans="1:6">
+      <c r="D413" s="55" t="s">
+        <v>279</v>
+      </c>
+      <c r="E413" s="55" t="s">
+        <v>280</v>
+      </c>
+      <c r="F413" s="55" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="414" spans="1:6">
+      <c r="D414" s="52" t="s">
+        <v>282</v>
+      </c>
+      <c r="E414" s="38" t="s">
+        <v>283</v>
+      </c>
+      <c r="F414" s="38" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="415" spans="1:6">
+      <c r="D415" s="52" t="s">
+        <v>285</v>
+      </c>
+      <c r="E415" s="38" t="s">
+        <v>286</v>
+      </c>
+      <c r="F415" s="38" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="416" spans="1:6">
+      <c r="D416" s="52" t="s">
+        <v>288</v>
+      </c>
+      <c r="E416" s="38" t="s">
+        <v>289</v>
+      </c>
+      <c r="F416" s="38" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="417" spans="1:6">
+      <c r="D417" s="52" t="s">
+        <v>291</v>
+      </c>
+      <c r="E417" s="38" t="s">
+        <v>292</v>
+      </c>
+      <c r="F417" s="38" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="418" spans="1:6">
+      <c r="D418" s="52" t="s">
+        <v>294</v>
+      </c>
+      <c r="E418" s="38" t="s">
+        <v>295</v>
+      </c>
+      <c r="F418" s="38" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="419" spans="1:6">
+      <c r="D419" s="56"/>
+      <c r="E419" s="57"/>
+      <c r="F419" s="57"/>
+    </row>
+    <row r="420" spans="1:6">
+      <c r="A420" s="2">
+        <v>15</v>
+      </c>
+      <c r="B420" t="s">
+        <v>298</v>
       </c>
     </row>
   </sheetData>
